--- a/supplementary-material/inputs/prisma.xlsx
+++ b/supplementary-material/inputs/prisma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davetaylor/dev/youth-employment-nma-paper/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0DE67F-395A-4B4F-ADBC-398CC3006C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F58D6-4BDD-894B-A72D-27E2AF9D8960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24980" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
   </bookViews>
   <sheets>
     <sheet name="prisma" sheetId="21" r:id="rId1"/>
@@ -345,9 +345,6 @@
     <t>Discussion</t>
   </si>
   <si>
-    <t>In article is identified as a rapid review and network meta-analysis in the title</t>
-  </si>
-  <si>
     <t>Provided in Figure 1.</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>Provided in supplementary material and in Github repository.</t>
+  </si>
+  <si>
+    <t>In article is identified as a component network meta-analysis in the title</t>
   </si>
 </sst>
 </file>
@@ -760,6 +760,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -768,24 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,11 +1131,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1149,16 +1149,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1175,12 +1175,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1211,12 +1211,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1229,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="92" thickBot="1" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="25"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="53" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -1475,7 +1475,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>70</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>76</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="25"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
@@ -1637,7 +1637,7 @@
         <v>79</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>81</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1665,16 +1665,16 @@
         <v>83</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
@@ -1687,7 +1687,7 @@
         <v>87</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>89</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
         <v>91</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1729,7 +1729,7 @@
         <v>93</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>95</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>97</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/supplementary-material/inputs/prisma.xlsx
+++ b/supplementary-material/inputs/prisma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davetaylor/dev/youth-employment-nma-paper/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F58D6-4BDD-894B-A72D-27E2AF9D8960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2856CAC5-E548-E74E-B1A6-085605B39A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
   </bookViews>
@@ -441,7 +441,7 @@
     <t>Provided in supplementary material and in Github repository.</t>
   </si>
   <si>
-    <t>In article is identified as a component network meta-analysis in the title</t>
+    <t>The article is identified as a component network meta-analysis in the title</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
